--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/filoper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AC94E5-C425-EF45-80F6-F26068B50E7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0858B23A-E05D-E049-A860-F23C373893F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
   </bookViews>
@@ -385,13 +385,13 @@
     <t>MICHAEL TYE &lt;br&gt;Una teoría representacional del dolor y de su carácter fenoménico</t>
   </si>
   <si>
-    <t>(adelantar)</t>
-  </si>
-  <si>
     <t>(cada uno)</t>
   </si>
   <si>
     <t>Programa del seminario</t>
+  </si>
+  <si>
+    <t>(Adelantar)</t>
   </si>
 </sst>
 </file>
@@ -953,7 +953,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1057,15 +1057,15 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Miércoles 07 Agosto</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>68</v>
-      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
+      <c r="F4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">

--- a/base.xlsx
+++ b/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/filoper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0858B23A-E05D-E049-A860-F23C373893F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103F1855-6EB8-854F-AE77-017D7B1F1054}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>Tema</t>
   </si>
@@ -244,46 +244,10 @@
     <t>Contra los qualia 2</t>
   </si>
   <si>
-    <t>La intencionalidad y el carácter fenoméico</t>
-  </si>
-  <si>
     <t>Qualias invertidos</t>
   </si>
   <si>
     <t>Dolor y representación</t>
-  </si>
-  <si>
-    <t>Estudiante 1</t>
-  </si>
-  <si>
-    <t>Estudiante 2</t>
-  </si>
-  <si>
-    <t>Estudiante 3</t>
-  </si>
-  <si>
-    <t>Estudiante 4</t>
-  </si>
-  <si>
-    <t>Estudiante 5</t>
-  </si>
-  <si>
-    <t>Estudiante 6</t>
-  </si>
-  <si>
-    <t>Estudiante 7</t>
-  </si>
-  <si>
-    <t>Estudiante 8</t>
-  </si>
-  <si>
-    <t>Estudiante 9</t>
-  </si>
-  <si>
-    <t>Estudiante 10</t>
-  </si>
-  <si>
-    <t>Estudiante 11</t>
   </si>
   <si>
     <r>
@@ -392,6 +356,45 @@
   </si>
   <si>
     <t>(Adelantar)</t>
+  </si>
+  <si>
+    <t>reposición lunes de 11 a 2</t>
+  </si>
+  <si>
+    <t>La intencionalidad y el carácter fenoménico</t>
+  </si>
+  <si>
+    <t>Camilo</t>
+  </si>
+  <si>
+    <t>Valhery</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
+    <t>Maria Fernanda</t>
+  </si>
+  <si>
+    <t>Juliana</t>
+  </si>
+  <si>
+    <t>Ángela</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Sofía</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
+    <t>Pedro</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -472,8 +475,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +518,11 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -551,13 +566,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -633,9 +649,20 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{EFFFCAF1-F9EB-7848-BE81-435053A1612F}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -950,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E7679-38D8-C743-97BF-FED867349053}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -962,8 +989,8 @@
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="36.1640625" customWidth="1"/>
     <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="49.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="51.6640625" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="17.1640625" customWidth="1"/>
@@ -1023,7 +1050,7 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1031,7 +1058,7 @@
         <v>43677</v>
       </c>
       <c r="B3" s="4" t="str">
-        <f t="shared" ref="B3:B19" si="0">PROPER(TEXT(A3,"[$-240a] dddd dd mmmm"))</f>
+        <f t="shared" ref="B3:B6" si="0">PROPER(TEXT(A3,"[$-240a] dddd dd mmmm"))</f>
         <v xml:space="preserve"> Miércoles 31 Julio</v>
       </c>
       <c r="C3" t="s">
@@ -1039,14 +1066,14 @@
       </c>
       <c r="D3" s="24" t="str">
         <f>_xlfn.CONCAT("Presentación a cargo de ",G3)</f>
-        <v>Presentación a cargo de Estudiante 1</v>
+        <v>Presentación a cargo de Camilo</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="23" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1061,11 +1088,11 @@
         <v>30</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1079,16 +1106,16 @@
       <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="24" t="str">
-        <f>_xlfn.CONCAT("Presentación a cargo de ",G5)</f>
-        <v>Presentación a cargo de Estudiante 2</v>
+      <c r="D5" s="24" t="e">
+        <f>_xlfn.CONCAT("Presentación a cargo de ",#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1104,106 +1131,106 @@
       </c>
       <c r="D6" s="24" t="str">
         <f t="shared" ref="D6:D19" si="1">_xlfn.CONCAT("Presentación a cargo de ",G6)</f>
-        <v>Presentación a cargo de Estudiante 3</v>
+        <v>Presentación a cargo de Ruben</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="26" t="s">
         <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>43705</v>
+        <v>43719</v>
       </c>
       <c r="B7" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> Miércoles 28 Agosto</v>
+        <f>PROPER(TEXT(A7,"[$-240a] dddd dd mmmm"))</f>
+        <v xml:space="preserve"> Miércoles 11 Septiembre</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Presentación a cargo de Estudiante 4</v>
+        <v>Presentación a cargo de Maria Fernanda</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="23" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>43712</v>
+        <v>43724</v>
       </c>
       <c r="B8" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> Miércoles 04 Septiembre</v>
+        <f>PROPER(TEXT(A8,"[$-240a] dddd dd mmmm"))</f>
+        <v xml:space="preserve"> Lunes 16 Septiembre</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Presentación a cargo de Estudiante 5</v>
+        <v>Presentación a cargo de Jose</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="23" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>43719</v>
+        <v>43726</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> Miércoles 11 Septiembre</v>
+        <f>PROPER(TEXT(A9,"[$-240a] dddd dd mmmm"))</f>
+        <v xml:space="preserve"> Miércoles 18 Septiembre</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Presentación a cargo de Estudiante 6</v>
+        <v>Presentación a cargo de Ángela</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>43726</v>
+        <v>43731</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> Miércoles 18 Septiembre</v>
+        <f>PROPER(TEXT(A10,"[$-240a] dddd dd mmmm"))</f>
+        <v xml:space="preserve"> Lunes 23 Septiembre</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Presentación a cargo de Estudiante 7</v>
+        <v>Presentación a cargo de Santiago</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="23" t="s">
         <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1211,7 +1238,7 @@
         <v>43733</v>
       </c>
       <c r="B11" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>PROPER(TEXT(A11,"[$-240a] dddd dd mmmm"))</f>
         <v xml:space="preserve"> Miércoles 25 Septiembre</v>
       </c>
       <c r="C11" t="s">
@@ -1219,114 +1246,112 @@
       </c>
       <c r="D11" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Presentación a cargo de Estudiante 8</v>
+        <v>Presentación a cargo de Pedro</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="23" t="s">
         <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>43740</v>
+        <v>43738</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> Miércoles 02 Octubre</v>
+        <f t="shared" ref="B12:B20" si="2">PROPER(TEXT(A12,"[$-240a] dddd dd mmmm"))</f>
+        <v xml:space="preserve"> Lunes 30 Septiembre</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Presentación a cargo de Estudiante 9</v>
+        <v>Presentación a cargo de Juliana</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="23" t="s">
         <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>43747</v>
+        <v>43740</v>
       </c>
       <c r="B13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> Miércoles 09 Octubre</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Miércoles 02 Octubre</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D13" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Presentación a cargo de Estudiante 10</v>
+        <v>Presentación a cargo de Sofía</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>43754</v>
+        <v>43747</v>
       </c>
       <c r="B14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> Miércoles 16 Octubre</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Miércoles 09 Octubre</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Presentación a cargo de Estudiante 11</v>
+        <v>Presentación a cargo de Carolina</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="26" t="s">
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>43761</v>
+        <v>43754</v>
       </c>
       <c r="B15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> Miércoles 23 Octubre</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Miércoles 16 Octubre</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Presentación a cargo de (Por definir)</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v xml:space="preserve">Presentación a cargo de </v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>43768</v>
+        <v>43761</v>
       </c>
       <c r="B16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> Miércoles 30 Octubre</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Miércoles 23 Octubre</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1345,11 +1370,11 @@
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>43775</v>
+        <v>43768</v>
       </c>
       <c r="B17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> Miércoles 06 Noviembre</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> Miércoles 30 Octubre</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
@@ -1366,56 +1391,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
+        <v>43775</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
         <v>43782</v>
       </c>
-      <c r="B18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> Miércoles 13 Noviembre</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>Presentación a cargo de (Por definir)</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="B19" s="4"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
         <v>43789</v>
       </c>
-      <c r="B19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> Miércoles 20 Noviembre</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>Presentación a cargo de (Por definir)</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/base.xlsx
+++ b/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/filoper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103F1855-6EB8-854F-AE77-017D7B1F1054}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293BAED2-2BCC-ED4A-BFE0-CEA1C6CB6BFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>Tema</t>
   </si>
@@ -129,20 +129,6 @@
   </si>
   <si>
     <t>Festivo</t>
-  </si>
-  <si>
-    <r>
-      <t>COLIN MCGINN &lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times"/>
-        <family val="1"/>
-      </rPr>
-      <t>¿Podemos resolver el problema mente-cuerpo?</t>
-    </r>
   </si>
   <si>
     <t>NED BLOCK y JERRY FODOR &lt;br&gt; Lo que no son los estados psicológicos</t>
@@ -346,9 +332,6 @@
     </r>
   </si>
   <si>
-    <t>MICHAEL TYE &lt;br&gt;Una teoría representacional del dolor y de su carácter fenoménico</t>
-  </si>
-  <si>
     <t>(cada uno)</t>
   </si>
   <si>
@@ -379,9 +362,6 @@
     <t>Juliana</t>
   </si>
   <si>
-    <t>Ángela</t>
-  </si>
-  <si>
     <t>Santiago</t>
   </si>
   <si>
@@ -395,6 +375,23 @@
   </si>
   <si>
     <t>Pedro</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;strike&gt;COLIN MCGINN&lt;/strike&gt;  &lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>¿Podemos resolver el problema mente-cuerpo?</t>
+    </r>
+  </si>
+  <si>
+    <t>Angela</t>
   </si>
 </sst>
 </file>
@@ -573,7 +570,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -655,9 +652,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -979,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E7679-38D8-C743-97BF-FED867349053}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1043,14 +1037,14 @@
         <v xml:space="preserve"> Miércoles 24 Julio</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1062,7 +1056,7 @@
         <v xml:space="preserve"> Miércoles 31 Julio</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="24" t="str">
         <f>_xlfn.CONCAT("Presentación a cargo de ",G3)</f>
@@ -1070,10 +1064,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1088,11 +1082,11 @@
         <v>30</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1104,18 +1098,18 @@
         <v xml:space="preserve"> Miércoles 14 Agosto</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="24" t="e">
-        <f>_xlfn.CONCAT("Presentación a cargo de ",#REF!)</f>
-        <v>#REF!</v>
+        <v>38</v>
+      </c>
+      <c r="D5" s="24" t="str">
+        <f>_xlfn.CONCAT("Presentación a cargo de ",G5)</f>
+        <v>Presentación a cargo de Valhery</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1127,18 +1121,18 @@
         <v xml:space="preserve"> Miércoles 21 Agosto</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="24" t="str">
-        <f t="shared" ref="D6:D19" si="1">_xlfn.CONCAT("Presentación a cargo de ",G6)</f>
+        <f t="shared" ref="D6:D17" si="1">_xlfn.CONCAT("Presentación a cargo de ",G6)</f>
         <v>Presentación a cargo de Ruben</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="26" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1150,7 +1144,7 @@
         <v xml:space="preserve"> Miércoles 11 Septiembre</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="24" t="str">
         <f t="shared" si="1"/>
@@ -1158,10 +1152,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1173,7 +1167,7 @@
         <v xml:space="preserve"> Lunes 16 Septiembre</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="24" t="str">
         <f t="shared" si="1"/>
@@ -1181,13 +1175,13 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>43726</v>
       </c>
@@ -1196,18 +1190,18 @@
         <v xml:space="preserve"> Miércoles 18 Septiembre</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Presentación a cargo de Ángela</v>
+        <v>Presentación a cargo de Angela</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1219,7 +1213,7 @@
         <v xml:space="preserve"> Lunes 23 Septiembre</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="24" t="str">
         <f t="shared" si="1"/>
@@ -1227,10 +1221,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1242,7 +1236,7 @@
         <v xml:space="preserve"> Miércoles 25 Septiembre</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="24" t="str">
         <f t="shared" si="1"/>
@@ -1250,10 +1244,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1261,11 +1255,11 @@
         <v>43738</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f t="shared" ref="B12:B20" si="2">PROPER(TEXT(A12,"[$-240a] dddd dd mmmm"))</f>
+        <f t="shared" ref="B12:B17" si="2">PROPER(TEXT(A12,"[$-240a] dddd dd mmmm"))</f>
         <v xml:space="preserve"> Lunes 30 Septiembre</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="24" t="str">
         <f t="shared" si="1"/>
@@ -1273,10 +1267,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1288,17 +1282,17 @@
         <v xml:space="preserve"> Miércoles 02 Octubre</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Presentación a cargo de Sofía</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1310,7 +1304,7 @@
         <v xml:space="preserve"> Miércoles 09 Octubre</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="24" t="str">
         <f t="shared" si="1"/>
@@ -1318,13 +1312,13 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>43754</v>
       </c>
@@ -1333,17 +1327,19 @@
         <v xml:space="preserve"> Miércoles 16 Octubre</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="28" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Presentación a cargo de </v>
+        <v>Presentación a cargo de (Por definir)</v>
       </c>
       <c r="E15" s="29"/>
-      <c r="F15" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="30"/>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -1424,7 +1420,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/base.xlsx
+++ b/base.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/filoper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293BAED2-2BCC-ED4A-BFE0-CEA1C6CB6BFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84058B5E-CB5E-F544-A380-A27C22A2C1A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{92AD9A07-1A21-864F-8FD9-98EB9AF3C646}"/>
   </bookViews>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E7679-38D8-C743-97BF-FED867349053}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1206,11 +1206,11 @@
     </row>
     <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>43731</v>
+        <v>43733</v>
       </c>
       <c r="B10" s="4" t="str">
         <f>PROPER(TEXT(A10,"[$-240a] dddd dd mmmm"))</f>
-        <v xml:space="preserve"> Lunes 23 Septiembre</v>
+        <v xml:space="preserve"> Miércoles 25 Septiembre</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
@@ -1229,11 +1229,11 @@
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>43733</v>
+        <v>43738</v>
       </c>
       <c r="B11" s="4" t="str">
         <f>PROPER(TEXT(A11,"[$-240a] dddd dd mmmm"))</f>
-        <v xml:space="preserve"> Miércoles 25 Septiembre</v>
+        <v xml:space="preserve"> Lunes 30 Septiembre</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -1252,11 +1252,11 @@
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>43738</v>
+        <v>43740</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f t="shared" ref="B12:B17" si="2">PROPER(TEXT(A12,"[$-240a] dddd dd mmmm"))</f>
-        <v xml:space="preserve"> Lunes 30 Septiembre</v>
+        <f>PROPER(TEXT(A12,"[$-240a] dddd dd mmmm"))</f>
+        <v xml:space="preserve"> Miércoles 02 Octubre</v>
       </c>
       <c r="C12" t="s">
         <v>45</v>
@@ -1275,11 +1275,11 @@
     </row>
     <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>43740</v>
+        <v>43745</v>
       </c>
       <c r="B13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> Miércoles 02 Octubre</v>
+        <f>PROPER(TEXT(A13,"[$-240a] dddd dd mmmm"))</f>
+        <v xml:space="preserve"> Lunes 07 Octubre</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
@@ -1300,7 +1300,7 @@
         <v>43747</v>
       </c>
       <c r="B14" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B14:B17" si="2">PROPER(TEXT(A14,"[$-240a] dddd dd mmmm"))</f>
         <v xml:space="preserve"> Miércoles 09 Octubre</v>
       </c>
       <c r="C14" t="s">
